--- a/SVD_Files/Ethernet.xlsx
+++ b/SVD_Files/Ethernet.xlsx
@@ -1895,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:AL265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="B243" sqref="B243"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SVD_Files/Ethernet.xlsx
+++ b/SVD_Files/Ethernet.xlsx
@@ -719,9 +719,6 @@
   </si>
   <si>
     <t>1: Send preambula (0xFFFFFFFF), 0: No preambula</t>
-  </si>
-  <si>
-    <t>0: read, 1: write</t>
   </si>
   <si>
     <t>PHY address on MDIO bus</t>
@@ -1293,6 +1290,9 @@
   </si>
   <si>
     <t>0x3F00</t>
+  </si>
+  <si>
+    <t>1: read, 0: write</t>
   </si>
 </sst>
 </file>
@@ -1895,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:AL265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="C135" sqref="C135"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3328,7 +3328,7 @@
     <row r="108" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="B108" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>5</v>
@@ -3608,7 +3608,7 @@
     <row r="129" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
       <c r="B129" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>4</v>
@@ -3617,7 +3617,7 @@
     <row r="130" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
       <c r="B130" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>5</v>
@@ -3672,10 +3672,10 @@
         <v>184</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="135" spans="1:38" x14ac:dyDescent="0.25">
@@ -3686,7 +3686,7 @@
         <v>187</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="136" spans="1:38" x14ac:dyDescent="0.25">
@@ -3697,7 +3697,7 @@
         <v>188</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="137" spans="1:38" x14ac:dyDescent="0.25">
@@ -3708,7 +3708,7 @@
         <v>189</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>193</v>
+        <v>355</v>
       </c>
     </row>
     <row r="138" spans="1:38" x14ac:dyDescent="0.25">
@@ -3736,7 +3736,7 @@
     <row r="140" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
       <c r="B140" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C140" s="8" t="s">
         <v>4</v>
@@ -3753,10 +3753,10 @@
     </row>
     <row r="144" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144"/>
@@ -3800,16 +3800,16 @@
         <v>1</v>
       </c>
       <c r="B145" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C145" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="146" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A146" s="5"/>
       <c r="B146" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>4</v>
@@ -3826,13 +3826,13 @@
     </row>
     <row r="150" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C150" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D150"/>
       <c r="E150"/>
@@ -3872,10 +3872,10 @@
     </row>
     <row r="151" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C151" s="15" t="s">
         <v>6</v>
@@ -3918,13 +3918,13 @@
     </row>
     <row r="152" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C152" s="36" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D152"/>
       <c r="E152"/>
@@ -3964,13 +3964,13 @@
     </row>
     <row r="153" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C153" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D153"/>
       <c r="E153"/>
@@ -4013,16 +4013,16 @@
         <v>1</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="155" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A155" s="5"/>
       <c r="B155" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>4</v>
@@ -4039,10 +4039,10 @@
     </row>
     <row r="159" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159"/>
@@ -4086,10 +4086,10 @@
         <v>0</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="161" spans="1:38" x14ac:dyDescent="0.25">
@@ -4097,10 +4097,10 @@
         <v>1</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="162" spans="1:38" x14ac:dyDescent="0.25">
@@ -4108,10 +4108,10 @@
         <v>2</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="163" spans="1:38" x14ac:dyDescent="0.25">
@@ -4119,10 +4119,10 @@
         <v>3</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="164" spans="1:38" x14ac:dyDescent="0.25">
@@ -4130,10 +4130,10 @@
         <v>4</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="165" spans="1:38" x14ac:dyDescent="0.25">
@@ -4141,10 +4141,10 @@
         <v>185</v>
       </c>
       <c r="B165" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C165" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="166" spans="1:38" x14ac:dyDescent="0.25">
@@ -4152,10 +4152,10 @@
         <v>8</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="167" spans="1:38" x14ac:dyDescent="0.25">
@@ -4163,10 +4163,10 @@
         <v>9</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="168" spans="1:38" x14ac:dyDescent="0.25">
@@ -4174,10 +4174,10 @@
         <v>10</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="169" spans="1:38" x14ac:dyDescent="0.25">
@@ -4185,10 +4185,10 @@
         <v>11</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="170" spans="1:38" x14ac:dyDescent="0.25">
@@ -4196,16 +4196,16 @@
         <v>12</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="171" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A171" s="5"/>
       <c r="B171" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C171" s="8" t="s">
         <v>4</v>
@@ -4214,7 +4214,7 @@
     <row r="172" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A172" s="5"/>
       <c r="B172" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C172" s="8" t="s">
         <v>5</v>
@@ -4222,13 +4222,13 @@
     </row>
     <row r="175" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B175" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C175" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D175"/>
       <c r="E175"/>
@@ -4271,82 +4271,82 @@
         <v>0</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="13"/>
       <c r="B178" s="5"/>
       <c r="C178" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="13"/>
       <c r="B179" s="5"/>
       <c r="C179" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="13"/>
       <c r="B180" s="5"/>
       <c r="C180" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="13"/>
       <c r="B181" s="5"/>
       <c r="C181" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="13"/>
       <c r="B182" s="5"/>
       <c r="C182" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="13"/>
       <c r="B183" s="5"/>
       <c r="C183" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="13"/>
       <c r="B184" s="5"/>
       <c r="C184" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="13"/>
       <c r="B185" s="5"/>
       <c r="C185" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B186" s="11" t="s">
         <v>75</v>
@@ -4358,10 +4358,10 @@
         <v>7</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -4369,10 +4369,10 @@
         <v>8</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -4380,10 +4380,10 @@
         <v>9</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -4391,27 +4391,27 @@
         <v>10</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="5"/>
       <c r="B192" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C192" s="8" t="s">
         <v>4</v>
@@ -4420,7 +4420,7 @@
     <row r="193" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A193" s="5"/>
       <c r="B193" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C193" s="8" t="s">
         <v>5</v>
@@ -4428,13 +4428,13 @@
     </row>
     <row r="196" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B196" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C196" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D196"/>
       <c r="E196"/>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="198" spans="1:38" x14ac:dyDescent="0.25">
@@ -4488,10 +4488,10 @@
         <v>1</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="199" spans="1:38" x14ac:dyDescent="0.25">
@@ -4499,10 +4499,10 @@
         <v>2</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C199" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="200" spans="1:38" x14ac:dyDescent="0.25">
@@ -4510,10 +4510,10 @@
         <v>3</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C200" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="201" spans="1:38" x14ac:dyDescent="0.25">
@@ -4521,10 +4521,10 @@
         <v>4</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C201" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="202" spans="1:38" x14ac:dyDescent="0.25">
@@ -4532,21 +4532,21 @@
         <v>5</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C202" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="203" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A203" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C203" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="204" spans="1:38" x14ac:dyDescent="0.25">
@@ -4554,10 +4554,10 @@
         <v>8</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C204" s="21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="205" spans="1:38" x14ac:dyDescent="0.25">
@@ -4565,10 +4565,10 @@
         <v>9</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C205" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="206" spans="1:38" x14ac:dyDescent="0.25">
@@ -4576,16 +4576,16 @@
         <v>10</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C206" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="207" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A207" s="5"/>
       <c r="B207" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C207" s="8" t="s">
         <v>4</v>
@@ -4594,7 +4594,7 @@
     <row r="208" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A208" s="5"/>
       <c r="B208" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C208" s="8" t="s">
         <v>5</v>
@@ -4602,13 +4602,13 @@
     </row>
     <row r="212" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B212" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C212" s="18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D212"/>
       <c r="E212"/>
@@ -4651,16 +4651,16 @@
         <v>1</v>
       </c>
       <c r="B213" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C213" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="C213" s="5" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="214" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A214" s="5"/>
       <c r="B214" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C214" s="8" t="s">
         <v>4</v>
@@ -4677,13 +4677,13 @@
     </row>
     <row r="218" spans="1:38" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B218" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C218" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D218" s="23"/>
       <c r="E218" s="23"/>
@@ -4726,10 +4726,10 @@
         <v>0</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="220" spans="1:38" x14ac:dyDescent="0.25">
@@ -4740,7 +4740,7 @@
         <v>114</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="221" spans="1:38" x14ac:dyDescent="0.25">
@@ -4748,10 +4748,10 @@
         <v>2</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C221" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="222" spans="1:38" x14ac:dyDescent="0.25">
@@ -4759,10 +4759,10 @@
         <v>3</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C222" s="21" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="223" spans="1:38" x14ac:dyDescent="0.25">
@@ -4770,10 +4770,10 @@
         <v>4</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C223" s="21" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="224" spans="1:38" x14ac:dyDescent="0.25">
@@ -4781,21 +4781,21 @@
         <v>5</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C224" s="21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="225" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A225" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C225" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="226" spans="1:38" x14ac:dyDescent="0.25">
@@ -4815,7 +4815,7 @@
         <v>122</v>
       </c>
       <c r="C227" s="21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="228" spans="1:38" x14ac:dyDescent="0.25">
@@ -4823,16 +4823,16 @@
         <v>15</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C228" s="21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="229" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A229" s="5"/>
       <c r="B229" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C229" s="8" t="s">
         <v>4</v>
@@ -4841,7 +4841,7 @@
     <row r="230" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A230" s="5"/>
       <c r="B230" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C230" s="8" t="s">
         <v>5</v>
@@ -4849,13 +4849,13 @@
     </row>
     <row r="233" spans="1:38" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B233" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C233" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D233" s="23"/>
       <c r="E233" s="23"/>
@@ -4907,10 +4907,10 @@
         <v>8</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="236" spans="1:38" x14ac:dyDescent="0.25">
@@ -4918,10 +4918,10 @@
         <v>9</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C236" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="237" spans="1:38" x14ac:dyDescent="0.25">
@@ -4929,10 +4929,10 @@
         <v>10</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C237" s="21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="238" spans="1:38" x14ac:dyDescent="0.25">
@@ -4940,10 +4940,10 @@
         <v>11</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C238" s="21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="239" spans="1:38" x14ac:dyDescent="0.25">
@@ -4951,10 +4951,10 @@
         <v>12</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C239" s="21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="240" spans="1:38" x14ac:dyDescent="0.25">
@@ -4962,16 +4962,16 @@
         <v>13</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C240" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="241" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A241" s="5"/>
       <c r="B241" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C241" s="8" t="s">
         <v>4</v>
@@ -4980,7 +4980,7 @@
     <row r="242" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A242" s="5"/>
       <c r="B242" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C242" s="8" t="s">
         <v>5</v>
@@ -4988,13 +4988,13 @@
     </row>
     <row r="245" spans="1:38" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B245" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C245" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D245" s="23"/>
       <c r="E245" s="23"/>
@@ -5037,46 +5037,46 @@
         <v>0</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="247" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A247" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="248" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A248" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C248" s="21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="249" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A249" s="13"/>
       <c r="B249" s="5"/>
       <c r="C249" s="21" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="250" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A250" s="13"/>
       <c r="B250" s="5"/>
       <c r="C250" s="21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="251" spans="1:38" x14ac:dyDescent="0.25">
@@ -5093,10 +5093,10 @@
         <v>14</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C252" s="21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="253" spans="1:38" x14ac:dyDescent="0.25">
@@ -5104,16 +5104,16 @@
         <v>15</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C253" s="21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="254" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A254" s="5"/>
       <c r="B254" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C254" s="8" t="s">
         <v>4</v>
@@ -5122,7 +5122,7 @@
     <row r="255" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A255" s="5"/>
       <c r="B255" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C255" s="8" t="s">
         <v>5</v>
@@ -5131,61 +5131,61 @@
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="29"/>
       <c r="B260" s="32" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C260" s="31"/>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B261" s="30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C261" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="34" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B262" s="25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C262" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="35"/>
       <c r="B263" s="27" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C263" s="28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B264" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="C264" s="31" t="s">
         <v>343</v>
-      </c>
-      <c r="C264" s="31" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B265" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="C265" s="31" t="s">
         <v>343</v>
-      </c>
-      <c r="C265" s="31" t="s">
-        <v>344</v>
       </c>
     </row>
   </sheetData>

--- a/SVD_Files/Ethernet.xlsx
+++ b/SVD_Files/Ethernet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="362">
   <si>
     <t>Delimeter</t>
   </si>
@@ -473,9 +473,6 @@
   </si>
   <si>
     <t>12 (28)</t>
-  </si>
-  <si>
-    <t>3..11</t>
   </si>
   <si>
     <t>XRST</t>
@@ -1294,12 +1291,33 @@
   <si>
     <t>1: read, 0: write</t>
   </si>
+  <si>
+    <t>3 (19)</t>
+  </si>
+  <si>
+    <t>4 (20)</t>
+  </si>
+  <si>
+    <t>5..11</t>
+  </si>
+  <si>
+    <t>RMII_MII</t>
+  </si>
+  <si>
+    <t>RMII_SPEED</t>
+  </si>
+  <si>
+    <t>0: MII, 1: RMII                             (ESILA Only!)</t>
+  </si>
+  <si>
+    <t>0: 10Mbps, 1: 100Mbps           (ESILA Only!)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1414,6 +1432,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1558,7 +1583,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1612,6 +1637,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1893,10 +1922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:AL265"/>
+  <dimension ref="A5:AL267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="C137" sqref="C137"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3051,10 +3080,10 @@
     </row>
     <row r="88" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88"/>
@@ -3098,10 +3127,10 @@
         <v>103</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="90" spans="1:38" x14ac:dyDescent="0.25">
@@ -3109,10 +3138,10 @@
         <v>8</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="91" spans="1:38" x14ac:dyDescent="0.25">
@@ -3120,10 +3149,10 @@
         <v>9</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:38" x14ac:dyDescent="0.25">
@@ -3131,10 +3160,10 @@
         <v>10</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93" spans="1:38" x14ac:dyDescent="0.25">
@@ -3142,10 +3171,10 @@
         <v>11</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94" spans="1:38" x14ac:dyDescent="0.25">
@@ -3153,10 +3182,10 @@
         <v>104</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95" spans="1:38" x14ac:dyDescent="0.25">
@@ -3164,10 +3193,10 @@
         <v>14</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96" spans="1:38" x14ac:dyDescent="0.25">
@@ -3182,7 +3211,7 @@
     <row r="97" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="B97" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>4</v>
@@ -3191,7 +3220,7 @@
     <row r="98" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>5</v>
@@ -3199,10 +3228,10 @@
     </row>
     <row r="99" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99"/>
@@ -3246,10 +3275,10 @@
         <v>106</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101" spans="1:38" x14ac:dyDescent="0.25">
@@ -3257,10 +3286,10 @@
         <v>105</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="102" spans="1:38" x14ac:dyDescent="0.25">
@@ -3268,455 +3297,455 @@
         <v>107</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="103" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B103" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C103" s="5"/>
+      <c r="A103" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="B103" s="38" t="s">
+        <v>358</v>
+      </c>
+      <c r="C103" s="38" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="104" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>138</v>
+      <c r="A104" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="B104" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="C104" s="38" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="105" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>139</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C105" s="5"/>
     </row>
     <row r="106" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="107" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="108" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B106" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="107" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C107" s="8" t="s">
+      <c r="B108" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="109" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A109" s="5"/>
+      <c r="B109" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C109" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A108" s="5"/>
-      <c r="B108" s="8" t="s">
+    <row r="110" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A110" s="5"/>
+      <c r="B110" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="C112" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="113" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+      <c r="P113"/>
+      <c r="Q113"/>
+      <c r="R113"/>
+      <c r="S113"/>
+      <c r="T113"/>
+      <c r="U113"/>
+      <c r="V113"/>
+      <c r="W113"/>
+      <c r="X113"/>
+      <c r="Y113"/>
+      <c r="Z113"/>
+      <c r="AA113"/>
+      <c r="AB113"/>
+      <c r="AC113"/>
+      <c r="AD113"/>
+      <c r="AE113"/>
+      <c r="AF113"/>
+      <c r="AG113"/>
+      <c r="AH113"/>
+      <c r="AI113"/>
+      <c r="AJ113"/>
+      <c r="AK113"/>
+      <c r="AL113"/>
+    </row>
+    <row r="114" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
+      <c r="P114"/>
+      <c r="Q114"/>
+      <c r="R114"/>
+      <c r="S114"/>
+      <c r="T114"/>
+      <c r="U114"/>
+      <c r="V114"/>
+      <c r="W114"/>
+      <c r="X114"/>
+      <c r="Y114"/>
+      <c r="Z114"/>
+      <c r="AA114"/>
+      <c r="AB114"/>
+      <c r="AC114"/>
+      <c r="AD114"/>
+      <c r="AE114"/>
+      <c r="AF114"/>
+      <c r="AG114"/>
+      <c r="AH114"/>
+      <c r="AI114"/>
+      <c r="AJ114"/>
+      <c r="AK114"/>
+      <c r="AL114"/>
+    </row>
+    <row r="115" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <v>0</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A116" s="13">
+        <v>1</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="117" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <v>2</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="118" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>3</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="119" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <v>4</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <v>5</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="121" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <v>6</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="122" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
+        <v>7</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="123" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A123" s="13">
+        <v>8</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="124" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <v>9</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="125" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
+        <v>10</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="126" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
+        <v>11</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <v>12</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="128" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <v>13</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C128" s="5"/>
+    </row>
+    <row r="129" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
+        <v>14</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="130" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
+        <v>15</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="131" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A131" s="5"/>
+      <c r="B131" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A132" s="5"/>
+      <c r="B132" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="C132" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C110" s="14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="111" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D111"/>
-      <c r="E111"/>
-      <c r="F111"/>
-      <c r="G111"/>
-      <c r="H111"/>
-      <c r="I111"/>
-      <c r="J111"/>
-      <c r="K111"/>
-      <c r="L111"/>
-      <c r="M111"/>
-      <c r="N111"/>
-      <c r="O111"/>
-      <c r="P111"/>
-      <c r="Q111"/>
-      <c r="R111"/>
-      <c r="S111"/>
-      <c r="T111"/>
-      <c r="U111"/>
-      <c r="V111"/>
-      <c r="W111"/>
-      <c r="X111"/>
-      <c r="Y111"/>
-      <c r="Z111"/>
-      <c r="AA111"/>
-      <c r="AB111"/>
-      <c r="AC111"/>
-      <c r="AD111"/>
-      <c r="AE111"/>
-      <c r="AF111"/>
-      <c r="AG111"/>
-      <c r="AH111"/>
-      <c r="AI111"/>
-      <c r="AJ111"/>
-      <c r="AK111"/>
-      <c r="AL111"/>
-    </row>
-    <row r="112" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D112"/>
-      <c r="E112"/>
-      <c r="F112"/>
-      <c r="G112"/>
-      <c r="H112"/>
-      <c r="I112"/>
-      <c r="J112"/>
-      <c r="K112"/>
-      <c r="L112"/>
-      <c r="M112"/>
-      <c r="N112"/>
-      <c r="O112"/>
-      <c r="P112"/>
-      <c r="Q112"/>
-      <c r="R112"/>
-      <c r="S112"/>
-      <c r="T112"/>
-      <c r="U112"/>
-      <c r="V112"/>
-      <c r="W112"/>
-      <c r="X112"/>
-      <c r="Y112"/>
-      <c r="Z112"/>
-      <c r="AA112"/>
-      <c r="AB112"/>
-      <c r="AC112"/>
-      <c r="AD112"/>
-      <c r="AE112"/>
-      <c r="AF112"/>
-      <c r="AG112"/>
-      <c r="AH112"/>
-      <c r="AI112"/>
-      <c r="AJ112"/>
-      <c r="AK112"/>
-      <c r="AL112"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="4">
-        <v>0</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="13">
-        <v>1</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="4">
-        <v>2</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="4">
-        <v>3</v>
-      </c>
-      <c r="B116" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="4">
-        <v>4</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="4">
-        <v>5</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="4">
-        <v>6</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="4">
-        <v>7</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="13">
-        <v>8</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="4">
-        <v>9</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="4">
-        <v>10</v>
-      </c>
-      <c r="B123" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="4">
-        <v>11</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="4">
-        <v>12</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="4">
-        <v>13</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C126" s="5"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="4">
-        <v>14</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="4">
-        <v>15</v>
-      </c>
-      <c r="B128" s="5" t="s">
+    <row r="135" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C128" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="129" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A129" s="5"/>
-      <c r="B129" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A130" s="5"/>
-      <c r="B130" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="133" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+      <c r="B135" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C133" s="2"/>
-      <c r="D133"/>
-      <c r="E133"/>
-      <c r="F133"/>
-      <c r="G133"/>
-      <c r="H133"/>
-      <c r="I133"/>
-      <c r="J133"/>
-      <c r="K133"/>
-      <c r="L133"/>
-      <c r="M133"/>
-      <c r="N133"/>
-      <c r="O133"/>
-      <c r="P133"/>
-      <c r="Q133"/>
-      <c r="R133"/>
-      <c r="S133"/>
-      <c r="T133"/>
-      <c r="U133"/>
-      <c r="V133"/>
-      <c r="W133"/>
-      <c r="X133"/>
-      <c r="Y133"/>
-      <c r="Z133"/>
-      <c r="AA133"/>
-      <c r="AB133"/>
-      <c r="AC133"/>
-      <c r="AD133"/>
-      <c r="AE133"/>
-      <c r="AF133"/>
-      <c r="AG133"/>
-      <c r="AH133"/>
-      <c r="AI133"/>
-      <c r="AJ133"/>
-      <c r="AK133"/>
-      <c r="AL133"/>
-    </row>
-    <row r="134" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="135" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A135" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>194</v>
-      </c>
+      <c r="C135" s="2"/>
+      <c r="D135"/>
+      <c r="E135"/>
+      <c r="F135"/>
+      <c r="G135"/>
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135"/>
+      <c r="K135"/>
+      <c r="L135"/>
+      <c r="M135"/>
+      <c r="N135"/>
+      <c r="O135"/>
+      <c r="P135"/>
+      <c r="Q135"/>
+      <c r="R135"/>
+      <c r="S135"/>
+      <c r="T135"/>
+      <c r="U135"/>
+      <c r="V135"/>
+      <c r="W135"/>
+      <c r="X135"/>
+      <c r="Y135"/>
+      <c r="Z135"/>
+      <c r="AA135"/>
+      <c r="AB135"/>
+      <c r="AC135"/>
+      <c r="AD135"/>
+      <c r="AE135"/>
+      <c r="AF135"/>
+      <c r="AG135"/>
+      <c r="AH135"/>
+      <c r="AI135"/>
+      <c r="AJ135"/>
+      <c r="AK135"/>
+      <c r="AL135"/>
     </row>
     <row r="136" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="137" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B137" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B136" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C136" s="5" t="s">
+      <c r="C137" s="5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="137" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A137" s="4">
-        <v>13</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>355</v>
-      </c>
-    </row>
     <row r="138" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A138" s="4">
-        <v>14</v>
+      <c r="A138" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>94</v>
+        <v>187</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>192</v>
@@ -3724,207 +3753,137 @@
     </row>
     <row r="139" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
+        <v>13</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="140" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <v>14</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="141" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
         <v>15</v>
       </c>
-      <c r="B139" s="5" t="s">
+      <c r="B141" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C141" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C139" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="140" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A140" s="5"/>
-      <c r="B140" s="8" t="s">
+    </row>
+    <row r="142" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A142" s="5"/>
+      <c r="B142" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A143" s="5"/>
+      <c r="B143" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C140" s="8" t="s">
+      <c r="C146" s="2"/>
+      <c r="D146"/>
+      <c r="E146"/>
+      <c r="F146"/>
+      <c r="G146"/>
+      <c r="H146"/>
+      <c r="I146"/>
+      <c r="J146"/>
+      <c r="K146"/>
+      <c r="L146"/>
+      <c r="M146"/>
+      <c r="N146"/>
+      <c r="O146"/>
+      <c r="P146"/>
+      <c r="Q146"/>
+      <c r="R146"/>
+      <c r="S146"/>
+      <c r="T146"/>
+      <c r="U146"/>
+      <c r="V146"/>
+      <c r="W146"/>
+      <c r="X146"/>
+      <c r="Y146"/>
+      <c r="Z146"/>
+      <c r="AA146"/>
+      <c r="AB146"/>
+      <c r="AC146"/>
+      <c r="AD146"/>
+      <c r="AE146"/>
+      <c r="AF146"/>
+      <c r="AG146"/>
+      <c r="AH146"/>
+      <c r="AI146"/>
+      <c r="AJ146"/>
+      <c r="AK146"/>
+      <c r="AL146"/>
+    </row>
+    <row r="147" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="148" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A148" s="5"/>
+      <c r="B148" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C148" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A141" s="5"/>
-      <c r="B141" s="8" t="s">
+    <row r="149" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A149" s="5"/>
+      <c r="B149" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C141" s="8" t="s">
+      <c r="C149" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="144" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C144" s="2"/>
-      <c r="D144"/>
-      <c r="E144"/>
-      <c r="F144"/>
-      <c r="G144"/>
-      <c r="H144"/>
-      <c r="I144"/>
-      <c r="J144"/>
-      <c r="K144"/>
-      <c r="L144"/>
-      <c r="M144"/>
-      <c r="N144"/>
-      <c r="O144"/>
-      <c r="P144"/>
-      <c r="Q144"/>
-      <c r="R144"/>
-      <c r="S144"/>
-      <c r="T144"/>
-      <c r="U144"/>
-      <c r="V144"/>
-      <c r="W144"/>
-      <c r="X144"/>
-      <c r="Y144"/>
-      <c r="Z144"/>
-      <c r="AA144"/>
-      <c r="AB144"/>
-      <c r="AC144"/>
-      <c r="AD144"/>
-      <c r="AE144"/>
-      <c r="AF144"/>
-      <c r="AG144"/>
-      <c r="AH144"/>
-      <c r="AI144"/>
-      <c r="AJ144"/>
-      <c r="AK144"/>
-      <c r="AL144"/>
-    </row>
-    <row r="145" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A145" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="146" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A146" s="5"/>
-      <c r="B146" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A147" s="5"/>
-      <c r="B147" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="150" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C150" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="D150"/>
-      <c r="E150"/>
-      <c r="F150"/>
-      <c r="G150"/>
-      <c r="H150"/>
-      <c r="I150"/>
-      <c r="J150"/>
-      <c r="K150"/>
-      <c r="L150"/>
-      <c r="M150"/>
-      <c r="N150"/>
-      <c r="O150"/>
-      <c r="P150"/>
-      <c r="Q150"/>
-      <c r="R150"/>
-      <c r="S150"/>
-      <c r="T150"/>
-      <c r="U150"/>
-      <c r="V150"/>
-      <c r="W150"/>
-      <c r="X150"/>
-      <c r="Y150"/>
-      <c r="Z150"/>
-      <c r="AA150"/>
-      <c r="AB150"/>
-      <c r="AC150"/>
-      <c r="AD150"/>
-      <c r="AE150"/>
-      <c r="AF150"/>
-      <c r="AG150"/>
-      <c r="AH150"/>
-      <c r="AI150"/>
-      <c r="AJ150"/>
-      <c r="AK150"/>
-      <c r="AL150"/>
-    </row>
-    <row r="151" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C151" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D151"/>
-      <c r="E151"/>
-      <c r="F151"/>
-      <c r="G151"/>
-      <c r="H151"/>
-      <c r="I151"/>
-      <c r="J151"/>
-      <c r="K151"/>
-      <c r="L151"/>
-      <c r="M151"/>
-      <c r="N151"/>
-      <c r="O151"/>
-      <c r="P151"/>
-      <c r="Q151"/>
-      <c r="R151"/>
-      <c r="S151"/>
-      <c r="T151"/>
-      <c r="U151"/>
-      <c r="V151"/>
-      <c r="W151"/>
-      <c r="X151"/>
-      <c r="Y151"/>
-      <c r="Z151"/>
-      <c r="AA151"/>
-      <c r="AB151"/>
-      <c r="AC151"/>
-      <c r="AD151"/>
-      <c r="AE151"/>
-      <c r="AF151"/>
-      <c r="AG151"/>
-      <c r="AH151"/>
-      <c r="AI151"/>
-      <c r="AJ151"/>
-      <c r="AK151"/>
-      <c r="AL151"/>
     </row>
     <row r="152" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C152" s="36" t="s">
-        <v>349</v>
+        <v>207</v>
+      </c>
+      <c r="C152" s="15" t="s">
+        <v>196</v>
       </c>
       <c r="D152"/>
       <c r="E152"/>
@@ -3964,13 +3923,13 @@
     </row>
     <row r="153" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C153" s="36" t="s">
-        <v>350</v>
+        <v>208</v>
+      </c>
+      <c r="C153" s="15" t="s">
+        <v>6</v>
       </c>
       <c r="D153"/>
       <c r="E153"/>
@@ -4008,1189 +3967,1281 @@
       <c r="AK153"/>
       <c r="AL153"/>
     </row>
-    <row r="154" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A154" s="4" t="s">
+    <row r="154" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C154" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="D154"/>
+      <c r="E154"/>
+      <c r="F154"/>
+      <c r="G154"/>
+      <c r="H154"/>
+      <c r="I154"/>
+      <c r="J154"/>
+      <c r="K154"/>
+      <c r="L154"/>
+      <c r="M154"/>
+      <c r="N154"/>
+      <c r="O154"/>
+      <c r="P154"/>
+      <c r="Q154"/>
+      <c r="R154"/>
+      <c r="S154"/>
+      <c r="T154"/>
+      <c r="U154"/>
+      <c r="V154"/>
+      <c r="W154"/>
+      <c r="X154"/>
+      <c r="Y154"/>
+      <c r="Z154"/>
+      <c r="AA154"/>
+      <c r="AB154"/>
+      <c r="AC154"/>
+      <c r="AD154"/>
+      <c r="AE154"/>
+      <c r="AF154"/>
+      <c r="AG154"/>
+      <c r="AH154"/>
+      <c r="AI154"/>
+      <c r="AJ154"/>
+      <c r="AK154"/>
+      <c r="AL154"/>
+    </row>
+    <row r="155" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C155" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="D155"/>
+      <c r="E155"/>
+      <c r="F155"/>
+      <c r="G155"/>
+      <c r="H155"/>
+      <c r="I155"/>
+      <c r="J155"/>
+      <c r="K155"/>
+      <c r="L155"/>
+      <c r="M155"/>
+      <c r="N155"/>
+      <c r="O155"/>
+      <c r="P155"/>
+      <c r="Q155"/>
+      <c r="R155"/>
+      <c r="S155"/>
+      <c r="T155"/>
+      <c r="U155"/>
+      <c r="V155"/>
+      <c r="W155"/>
+      <c r="X155"/>
+      <c r="Y155"/>
+      <c r="Z155"/>
+      <c r="AA155"/>
+      <c r="AB155"/>
+      <c r="AC155"/>
+      <c r="AD155"/>
+      <c r="AE155"/>
+      <c r="AF155"/>
+      <c r="AG155"/>
+      <c r="AH155"/>
+      <c r="AI155"/>
+      <c r="AJ155"/>
+      <c r="AK155"/>
+      <c r="AL155"/>
+    </row>
+    <row r="156" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B154" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C154" s="5" t="s">
+      <c r="B156" s="5" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="155" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A155" s="5"/>
-      <c r="B155" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C155" s="8" t="s">
+      <c r="C156" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="157" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A157" s="5"/>
+      <c r="B157" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C157" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A156" s="5"/>
-      <c r="B156" s="8" t="s">
+    <row r="158" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A158" s="5"/>
+      <c r="B158" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C156" s="8" t="s">
+      <c r="C158" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
+    <row r="161" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C159" s="2"/>
-      <c r="D159"/>
-      <c r="E159"/>
-      <c r="F159"/>
-      <c r="G159"/>
-      <c r="H159"/>
-      <c r="I159"/>
-      <c r="J159"/>
-      <c r="K159"/>
-      <c r="L159"/>
-      <c r="M159"/>
-      <c r="N159"/>
-      <c r="O159"/>
-      <c r="P159"/>
-      <c r="Q159"/>
-      <c r="R159"/>
-      <c r="S159"/>
-      <c r="T159"/>
-      <c r="U159"/>
-      <c r="V159"/>
-      <c r="W159"/>
-      <c r="X159"/>
-      <c r="Y159"/>
-      <c r="Z159"/>
-      <c r="AA159"/>
-      <c r="AB159"/>
-      <c r="AC159"/>
-      <c r="AD159"/>
-      <c r="AE159"/>
-      <c r="AF159"/>
-      <c r="AG159"/>
-      <c r="AH159"/>
-      <c r="AI159"/>
-      <c r="AJ159"/>
-      <c r="AK159"/>
-      <c r="AL159"/>
-    </row>
-    <row r="160" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A160" s="4">
-        <v>0</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="161" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A161" s="13">
-        <v>1</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>222</v>
-      </c>
+      <c r="C161" s="2"/>
+      <c r="D161"/>
+      <c r="E161"/>
+      <c r="F161"/>
+      <c r="G161"/>
+      <c r="H161"/>
+      <c r="I161"/>
+      <c r="J161"/>
+      <c r="K161"/>
+      <c r="L161"/>
+      <c r="M161"/>
+      <c r="N161"/>
+      <c r="O161"/>
+      <c r="P161"/>
+      <c r="Q161"/>
+      <c r="R161"/>
+      <c r="S161"/>
+      <c r="T161"/>
+      <c r="U161"/>
+      <c r="V161"/>
+      <c r="W161"/>
+      <c r="X161"/>
+      <c r="Y161"/>
+      <c r="Z161"/>
+      <c r="AA161"/>
+      <c r="AB161"/>
+      <c r="AC161"/>
+      <c r="AD161"/>
+      <c r="AE161"/>
+      <c r="AF161"/>
+      <c r="AG161"/>
+      <c r="AH161"/>
+      <c r="AI161"/>
+      <c r="AJ161"/>
+      <c r="AK161"/>
+      <c r="AL161"/>
     </row>
     <row r="162" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="163" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A163" s="4">
-        <v>3</v>
-      </c>
-      <c r="B163" s="11" t="s">
-        <v>219</v>
+      <c r="A163" s="13">
+        <v>1</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="164" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C164" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="165" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A165" s="4">
+        <v>3</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C165" s="5" t="s">
         <v>224</v>
-      </c>
-    </row>
-    <row r="165" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A165" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="166" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="167" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A167" s="13">
-        <v>9</v>
+      <c r="A167" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="168" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="169" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A169" s="4">
-        <v>11</v>
-      </c>
-      <c r="B169" s="11" t="s">
-        <v>231</v>
+      <c r="A169" s="13">
+        <v>9</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="170" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
+        <v>10</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="171" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A171" s="4">
+        <v>11</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="172" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A172" s="4">
         <v>12</v>
       </c>
-      <c r="B170" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C170" s="5" t="s">
+      <c r="B172" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="173" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A173" s="5"/>
+      <c r="B173" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A174" s="5"/>
+      <c r="B174" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="16" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="171" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A171" s="5"/>
-      <c r="B171" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C171" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="172" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A172" s="5"/>
-      <c r="B172" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C172" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="175" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="B175" s="17" t="s">
+      <c r="B177" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="C177" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="D177"/>
+      <c r="E177"/>
+      <c r="F177"/>
+      <c r="G177"/>
+      <c r="H177"/>
+      <c r="I177"/>
+      <c r="J177"/>
+      <c r="K177"/>
+      <c r="L177"/>
+      <c r="M177"/>
+      <c r="N177"/>
+      <c r="O177"/>
+      <c r="P177"/>
+      <c r="Q177"/>
+      <c r="R177"/>
+      <c r="S177"/>
+      <c r="T177"/>
+      <c r="U177"/>
+      <c r="V177"/>
+      <c r="W177"/>
+      <c r="X177"/>
+      <c r="Y177"/>
+      <c r="Z177"/>
+      <c r="AA177"/>
+      <c r="AB177"/>
+      <c r="AC177"/>
+      <c r="AD177"/>
+      <c r="AE177"/>
+      <c r="AF177"/>
+      <c r="AG177"/>
+      <c r="AH177"/>
+      <c r="AI177"/>
+      <c r="AJ177"/>
+      <c r="AK177"/>
+      <c r="AL177"/>
+    </row>
+    <row r="178" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A178" s="4">
+        <v>0</v>
+      </c>
+      <c r="B178" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="C175" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="D175"/>
-      <c r="E175"/>
-      <c r="F175"/>
-      <c r="G175"/>
-      <c r="H175"/>
-      <c r="I175"/>
-      <c r="J175"/>
-      <c r="K175"/>
-      <c r="L175"/>
-      <c r="M175"/>
-      <c r="N175"/>
-      <c r="O175"/>
-      <c r="P175"/>
-      <c r="Q175"/>
-      <c r="R175"/>
-      <c r="S175"/>
-      <c r="T175"/>
-      <c r="U175"/>
-      <c r="V175"/>
-      <c r="W175"/>
-      <c r="X175"/>
-      <c r="Y175"/>
-      <c r="Z175"/>
-      <c r="AA175"/>
-      <c r="AB175"/>
-      <c r="AC175"/>
-      <c r="AD175"/>
-      <c r="AE175"/>
-      <c r="AF175"/>
-      <c r="AG175"/>
-      <c r="AH175"/>
-      <c r="AI175"/>
-      <c r="AJ175"/>
-      <c r="AK175"/>
-      <c r="AL175"/>
-    </row>
-    <row r="176" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A176" s="4">
-        <v>0</v>
-      </c>
-      <c r="B176" s="5" t="s">
+      <c r="C178" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="179" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A179" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="C176" s="5" t="s">
+      <c r="B179" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C179" s="5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="13"/>
-      <c r="B178" s="5"/>
-      <c r="C178" s="21" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="13"/>
-      <c r="B179" s="5"/>
-      <c r="C179" s="21" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A180" s="13"/>
       <c r="B180" s="5"/>
       <c r="C180" s="21" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="181" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A181" s="13"/>
       <c r="B181" s="5"/>
       <c r="C181" s="21" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="182" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A182" s="13"/>
       <c r="B182" s="5"/>
       <c r="C182" s="21" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="183" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A183" s="13"/>
       <c r="B183" s="5"/>
       <c r="C183" s="21" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="184" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A184" s="13"/>
       <c r="B184" s="5"/>
       <c r="C184" s="21" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="185" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A185" s="13"/>
       <c r="B185" s="5"/>
       <c r="C185" s="21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="186" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A186" s="13"/>
+      <c r="B186" s="5"/>
+      <c r="C186" s="21" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="187" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A187" s="13"/>
+      <c r="B187" s="5"/>
+      <c r="C187" s="21" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="188" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B188" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C188" s="5"/>
+    </row>
+    <row r="189" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A189" s="4">
+        <v>7</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C189" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="4" t="s">
+    <row r="190" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A190" s="4">
+        <v>8</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="191" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A191" s="4">
+        <v>9</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="192" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A192" s="4">
+        <v>10</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="193" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A193" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="B186" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C186" s="5"/>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="4">
-        <v>7</v>
-      </c>
-      <c r="B187" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="4">
-        <v>8</v>
-      </c>
-      <c r="B188" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="4">
-        <v>9</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="C189" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="4">
-        <v>10</v>
-      </c>
-      <c r="B190" s="5" t="s">
+      <c r="B193" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C190" s="5" t="s">
+      <c r="C193" s="5" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="B191" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C191" s="5" t="s">
+    <row r="194" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A194" s="5"/>
+      <c r="B194" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A195" s="5"/>
+      <c r="B195" s="8" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="5"/>
-      <c r="B192" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C192" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="193" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A193" s="5"/>
-      <c r="B193" s="8" t="s">
+      <c r="C195" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="B198" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="C193" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="196" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="B196" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="C196" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="D196"/>
-      <c r="E196"/>
-      <c r="F196"/>
-      <c r="G196"/>
-      <c r="H196"/>
-      <c r="I196"/>
-      <c r="J196"/>
-      <c r="K196"/>
-      <c r="L196"/>
-      <c r="M196"/>
-      <c r="N196"/>
-      <c r="O196"/>
-      <c r="P196"/>
-      <c r="Q196"/>
-      <c r="R196"/>
-      <c r="S196"/>
-      <c r="T196"/>
-      <c r="U196"/>
-      <c r="V196"/>
-      <c r="W196"/>
-      <c r="X196"/>
-      <c r="Y196"/>
-      <c r="Z196"/>
-      <c r="AA196"/>
-      <c r="AB196"/>
-      <c r="AC196"/>
-      <c r="AD196"/>
-      <c r="AE196"/>
-      <c r="AF196"/>
-      <c r="AG196"/>
-      <c r="AH196"/>
-      <c r="AI196"/>
-      <c r="AJ196"/>
-      <c r="AK196"/>
-      <c r="AL196"/>
-    </row>
-    <row r="197" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A197" s="4">
+      <c r="C198" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="D198"/>
+      <c r="E198"/>
+      <c r="F198"/>
+      <c r="G198"/>
+      <c r="H198"/>
+      <c r="I198"/>
+      <c r="J198"/>
+      <c r="K198"/>
+      <c r="L198"/>
+      <c r="M198"/>
+      <c r="N198"/>
+      <c r="O198"/>
+      <c r="P198"/>
+      <c r="Q198"/>
+      <c r="R198"/>
+      <c r="S198"/>
+      <c r="T198"/>
+      <c r="U198"/>
+      <c r="V198"/>
+      <c r="W198"/>
+      <c r="X198"/>
+      <c r="Y198"/>
+      <c r="Z198"/>
+      <c r="AA198"/>
+      <c r="AB198"/>
+      <c r="AC198"/>
+      <c r="AD198"/>
+      <c r="AE198"/>
+      <c r="AF198"/>
+      <c r="AG198"/>
+      <c r="AH198"/>
+      <c r="AI198"/>
+      <c r="AJ198"/>
+      <c r="AK198"/>
+      <c r="AL198"/>
+    </row>
+    <row r="199" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A199" s="4">
         <v>0</v>
       </c>
-      <c r="B197" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="C197" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="198" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A198" s="13">
-        <v>1</v>
-      </c>
-      <c r="B198" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="C198" s="5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="199" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A199" s="13">
-        <v>2</v>
-      </c>
       <c r="B199" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="C199" s="21" t="s">
-        <v>281</v>
+        <v>270</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="200" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A200" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B200" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C200" s="21" t="s">
-        <v>282</v>
+      <c r="C200" s="5" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="201" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A201" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C201" s="21" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="202" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A202" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C202" s="21" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="203" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A203" s="13" t="s">
-        <v>270</v>
+      <c r="A203" s="13">
+        <v>4</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C203" s="21" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="204" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A204" s="13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>351</v>
+        <v>275</v>
       </c>
       <c r="C204" s="21" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="205" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A205" s="13">
-        <v>9</v>
+      <c r="A205" s="13" t="s">
+        <v>269</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C205" s="21" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="206" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A206" s="13">
+        <v>8</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C206" s="21" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="207" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A207" s="13">
+        <v>9</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C207" s="21" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="208" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A208" s="13">
         <v>10</v>
       </c>
-      <c r="B206" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C206" s="21" t="s">
+      <c r="B208" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C208" s="21" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="209" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A209" s="5"/>
+      <c r="B209" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A210" s="5"/>
+      <c r="B210" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="B214" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="C214" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="D214"/>
+      <c r="E214"/>
+      <c r="F214"/>
+      <c r="G214"/>
+      <c r="H214"/>
+      <c r="I214"/>
+      <c r="J214"/>
+      <c r="K214"/>
+      <c r="L214"/>
+      <c r="M214"/>
+      <c r="N214"/>
+      <c r="O214"/>
+      <c r="P214"/>
+      <c r="Q214"/>
+      <c r="R214"/>
+      <c r="S214"/>
+      <c r="T214"/>
+      <c r="U214"/>
+      <c r="V214"/>
+      <c r="W214"/>
+      <c r="X214"/>
+      <c r="Y214"/>
+      <c r="Z214"/>
+      <c r="AA214"/>
+      <c r="AB214"/>
+      <c r="AC214"/>
+      <c r="AD214"/>
+      <c r="AE214"/>
+      <c r="AF214"/>
+      <c r="AG214"/>
+      <c r="AH214"/>
+      <c r="AI214"/>
+      <c r="AJ214"/>
+      <c r="AK214"/>
+      <c r="AL214"/>
+    </row>
+    <row r="215" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A215" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="216" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A216" s="5"/>
+      <c r="B216" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A217" s="5"/>
+      <c r="B217" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:38" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="B220" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C220" s="18" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="207" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A207" s="5"/>
-      <c r="B207" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C207" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="208" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A208" s="5"/>
-      <c r="B208" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="C208" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="212" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="19" t="s">
-        <v>352</v>
-      </c>
-      <c r="B212" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="C212" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="D212"/>
-      <c r="E212"/>
-      <c r="F212"/>
-      <c r="G212"/>
-      <c r="H212"/>
-      <c r="I212"/>
-      <c r="J212"/>
-      <c r="K212"/>
-      <c r="L212"/>
-      <c r="M212"/>
-      <c r="N212"/>
-      <c r="O212"/>
-      <c r="P212"/>
-      <c r="Q212"/>
-      <c r="R212"/>
-      <c r="S212"/>
-      <c r="T212"/>
-      <c r="U212"/>
-      <c r="V212"/>
-      <c r="W212"/>
-      <c r="X212"/>
-      <c r="Y212"/>
-      <c r="Z212"/>
-      <c r="AA212"/>
-      <c r="AB212"/>
-      <c r="AC212"/>
-      <c r="AD212"/>
-      <c r="AE212"/>
-      <c r="AF212"/>
-      <c r="AG212"/>
-      <c r="AH212"/>
-      <c r="AI212"/>
-      <c r="AJ212"/>
-      <c r="AK212"/>
-      <c r="AL212"/>
-    </row>
-    <row r="213" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A213" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B213" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C213" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="214" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A214" s="5"/>
-      <c r="B214" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C214" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="215" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A215" s="5"/>
-      <c r="B215" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C215" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="218" spans="1:38" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="B218" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="C218" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="D218" s="23"/>
-      <c r="E218" s="23"/>
-      <c r="F218" s="23"/>
-      <c r="G218" s="23"/>
-      <c r="H218" s="23"/>
-      <c r="I218" s="23"/>
-      <c r="J218" s="23"/>
-      <c r="K218" s="23"/>
-      <c r="L218" s="23"/>
-      <c r="M218" s="23"/>
-      <c r="N218" s="23"/>
-      <c r="O218" s="23"/>
-      <c r="P218" s="23"/>
-      <c r="Q218" s="23"/>
-      <c r="R218" s="23"/>
-      <c r="S218" s="23"/>
-      <c r="T218" s="23"/>
-      <c r="U218" s="23"/>
-      <c r="V218" s="23"/>
-      <c r="W218" s="23"/>
-      <c r="X218" s="23"/>
-      <c r="Y218" s="23"/>
-      <c r="Z218" s="23"/>
-      <c r="AA218" s="23"/>
-      <c r="AB218" s="23"/>
-      <c r="AC218" s="23"/>
-      <c r="AD218" s="23"/>
-      <c r="AE218" s="23"/>
-      <c r="AF218" s="23"/>
-      <c r="AG218" s="23"/>
-      <c r="AH218" s="23"/>
-      <c r="AI218" s="23"/>
-      <c r="AJ218" s="23"/>
-      <c r="AK218" s="23"/>
-      <c r="AL218" s="23"/>
-    </row>
-    <row r="219" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A219" s="4">
+      <c r="D220" s="23"/>
+      <c r="E220" s="23"/>
+      <c r="F220" s="23"/>
+      <c r="G220" s="23"/>
+      <c r="H220" s="23"/>
+      <c r="I220" s="23"/>
+      <c r="J220" s="23"/>
+      <c r="K220" s="23"/>
+      <c r="L220" s="23"/>
+      <c r="M220" s="23"/>
+      <c r="N220" s="23"/>
+      <c r="O220" s="23"/>
+      <c r="P220" s="23"/>
+      <c r="Q220" s="23"/>
+      <c r="R220" s="23"/>
+      <c r="S220" s="23"/>
+      <c r="T220" s="23"/>
+      <c r="U220" s="23"/>
+      <c r="V220" s="23"/>
+      <c r="W220" s="23"/>
+      <c r="X220" s="23"/>
+      <c r="Y220" s="23"/>
+      <c r="Z220" s="23"/>
+      <c r="AA220" s="23"/>
+      <c r="AB220" s="23"/>
+      <c r="AC220" s="23"/>
+      <c r="AD220" s="23"/>
+      <c r="AE220" s="23"/>
+      <c r="AF220" s="23"/>
+      <c r="AG220" s="23"/>
+      <c r="AH220" s="23"/>
+      <c r="AI220" s="23"/>
+      <c r="AJ220" s="23"/>
+      <c r="AK220" s="23"/>
+      <c r="AL220" s="23"/>
+    </row>
+    <row r="221" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A221" s="4">
         <v>0</v>
       </c>
-      <c r="B219" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C219" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="220" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A220" s="13">
-        <v>1</v>
-      </c>
-      <c r="B220" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C220" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="221" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A221" s="13">
-        <v>2</v>
-      </c>
       <c r="B221" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="C221" s="21" t="s">
-        <v>301</v>
+        <v>291</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="222" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A222" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C222" s="21" t="s">
-        <v>302</v>
+        <v>113</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="223" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A223" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C223" s="21" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="224" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A224" s="13">
+        <v>3</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C224" s="21" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="225" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A225" s="13">
+        <v>4</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C225" s="21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="226" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A226" s="13">
         <v>5</v>
       </c>
-      <c r="B224" s="5" t="s">
+      <c r="B226" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C226" s="21" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="227" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A227" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="B227" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="C224" s="21" t="s">
+      <c r="C227" s="21" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="225" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A225" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B225" s="5" t="s">
+    <row r="228" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A228" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B228" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C228" s="21"/>
+    </row>
+    <row r="229" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A229" s="13">
+        <v>14</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C229" s="21" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="230" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A230" s="13">
+        <v>15</v>
+      </c>
+      <c r="B230" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C225" s="21" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="226" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A226" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B226" s="11" t="s">
+      <c r="C230" s="21" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="231" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A231" s="5"/>
+      <c r="B231" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C231" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A232" s="5"/>
+      <c r="B232" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C232" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:38" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="B235" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="C235" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D235" s="23"/>
+      <c r="E235" s="23"/>
+      <c r="F235" s="23"/>
+      <c r="G235" s="23"/>
+      <c r="H235" s="23"/>
+      <c r="I235" s="23"/>
+      <c r="J235" s="23"/>
+      <c r="K235" s="23"/>
+      <c r="L235" s="23"/>
+      <c r="M235" s="23"/>
+      <c r="N235" s="23"/>
+      <c r="O235" s="23"/>
+      <c r="P235" s="23"/>
+      <c r="Q235" s="23"/>
+      <c r="R235" s="23"/>
+      <c r="S235" s="23"/>
+      <c r="T235" s="23"/>
+      <c r="U235" s="23"/>
+      <c r="V235" s="23"/>
+      <c r="W235" s="23"/>
+      <c r="X235" s="23"/>
+      <c r="Y235" s="23"/>
+      <c r="Z235" s="23"/>
+      <c r="AA235" s="23"/>
+      <c r="AB235" s="23"/>
+      <c r="AC235" s="23"/>
+      <c r="AD235" s="23"/>
+      <c r="AE235" s="23"/>
+      <c r="AF235" s="23"/>
+      <c r="AG235" s="23"/>
+      <c r="AH235" s="23"/>
+      <c r="AI235" s="23"/>
+      <c r="AJ235" s="23"/>
+      <c r="AK235" s="23"/>
+      <c r="AL235" s="23"/>
+    </row>
+    <row r="236" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A236" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B236" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C226" s="21"/>
-    </row>
-    <row r="227" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A227" s="13">
-        <v>14</v>
-      </c>
-      <c r="B227" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C227" s="21" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="228" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A228" s="13">
-        <v>15</v>
-      </c>
-      <c r="B228" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C228" s="21" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="229" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A229" s="5"/>
-      <c r="B229" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C229" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="230" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A230" s="5"/>
-      <c r="B230" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="C230" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="233" spans="1:38" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="B233" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="C233" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="D233" s="23"/>
-      <c r="E233" s="23"/>
-      <c r="F233" s="23"/>
-      <c r="G233" s="23"/>
-      <c r="H233" s="23"/>
-      <c r="I233" s="23"/>
-      <c r="J233" s="23"/>
-      <c r="K233" s="23"/>
-      <c r="L233" s="23"/>
-      <c r="M233" s="23"/>
-      <c r="N233" s="23"/>
-      <c r="O233" s="23"/>
-      <c r="P233" s="23"/>
-      <c r="Q233" s="23"/>
-      <c r="R233" s="23"/>
-      <c r="S233" s="23"/>
-      <c r="T233" s="23"/>
-      <c r="U233" s="23"/>
-      <c r="V233" s="23"/>
-      <c r="W233" s="23"/>
-      <c r="X233" s="23"/>
-      <c r="Y233" s="23"/>
-      <c r="Z233" s="23"/>
-      <c r="AA233" s="23"/>
-      <c r="AB233" s="23"/>
-      <c r="AC233" s="23"/>
-      <c r="AD233" s="23"/>
-      <c r="AE233" s="23"/>
-      <c r="AF233" s="23"/>
-      <c r="AG233" s="23"/>
-      <c r="AH233" s="23"/>
-      <c r="AI233" s="23"/>
-      <c r="AJ233" s="23"/>
-      <c r="AK233" s="23"/>
-      <c r="AL233" s="23"/>
-    </row>
-    <row r="234" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A234" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B234" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C234" s="5"/>
-    </row>
-    <row r="235" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A235" s="13">
-        <v>8</v>
-      </c>
-      <c r="B235" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="C235" s="5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="236" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A236" s="13">
-        <v>9</v>
-      </c>
-      <c r="B236" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="C236" s="21" t="s">
-        <v>285</v>
-      </c>
+      <c r="C236" s="5"/>
     </row>
     <row r="237" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A237" s="13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="C237" s="21" t="s">
-        <v>315</v>
+        <v>308</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="238" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A238" s="13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>311</v>
+        <v>352</v>
       </c>
       <c r="C238" s="21" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
     </row>
     <row r="239" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A239" s="13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C239" s="21" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="240" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A240" s="13">
+        <v>11</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C240" s="21" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="241" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A241" s="13">
+        <v>12</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C241" s="21" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="242" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A242" s="13">
         <v>13</v>
       </c>
-      <c r="B240" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="C240" s="21" t="s">
+      <c r="B242" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C242" s="21" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="243" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A243" s="5"/>
+      <c r="B243" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C243" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A244" s="5"/>
+      <c r="B244" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C244" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:38" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="B247" s="18" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="241" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A241" s="5"/>
-      <c r="B241" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C241" s="8" t="s">
+      <c r="C247" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D247" s="23"/>
+      <c r="E247" s="23"/>
+      <c r="F247" s="23"/>
+      <c r="G247" s="23"/>
+      <c r="H247" s="23"/>
+      <c r="I247" s="23"/>
+      <c r="J247" s="23"/>
+      <c r="K247" s="23"/>
+      <c r="L247" s="23"/>
+      <c r="M247" s="23"/>
+      <c r="N247" s="23"/>
+      <c r="O247" s="23"/>
+      <c r="P247" s="23"/>
+      <c r="Q247" s="23"/>
+      <c r="R247" s="23"/>
+      <c r="S247" s="23"/>
+      <c r="T247" s="23"/>
+      <c r="U247" s="23"/>
+      <c r="V247" s="23"/>
+      <c r="W247" s="23"/>
+      <c r="X247" s="23"/>
+      <c r="Y247" s="23"/>
+      <c r="Z247" s="23"/>
+      <c r="AA247" s="23"/>
+      <c r="AB247" s="23"/>
+      <c r="AC247" s="23"/>
+      <c r="AD247" s="23"/>
+      <c r="AE247" s="23"/>
+      <c r="AF247" s="23"/>
+      <c r="AG247" s="23"/>
+      <c r="AH247" s="23"/>
+      <c r="AI247" s="23"/>
+      <c r="AJ247" s="23"/>
+      <c r="AK247" s="23"/>
+      <c r="AL247" s="23"/>
+    </row>
+    <row r="248" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A248" s="4">
+        <v>0</v>
+      </c>
+      <c r="B248" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="249" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A249" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="250" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A250" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C250" s="21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="251" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A251" s="13"/>
+      <c r="B251" s="5"/>
+      <c r="C251" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="252" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A252" s="13"/>
+      <c r="B252" s="5"/>
+      <c r="C252" s="21" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="253" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A253" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B253" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C253" s="21"/>
+    </row>
+    <row r="254" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A254" s="13">
+        <v>14</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C254" s="21" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="255" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A255" s="13">
+        <v>15</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C255" s="21" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="256" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A256" s="5"/>
+      <c r="B256" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C256" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A242" s="5"/>
-      <c r="B242" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="C242" s="8" t="s">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="5"/>
+      <c r="B257" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C257" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:38" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="B245" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="C245" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="D245" s="23"/>
-      <c r="E245" s="23"/>
-      <c r="F245" s="23"/>
-      <c r="G245" s="23"/>
-      <c r="H245" s="23"/>
-      <c r="I245" s="23"/>
-      <c r="J245" s="23"/>
-      <c r="K245" s="23"/>
-      <c r="L245" s="23"/>
-      <c r="M245" s="23"/>
-      <c r="N245" s="23"/>
-      <c r="O245" s="23"/>
-      <c r="P245" s="23"/>
-      <c r="Q245" s="23"/>
-      <c r="R245" s="23"/>
-      <c r="S245" s="23"/>
-      <c r="T245" s="23"/>
-      <c r="U245" s="23"/>
-      <c r="V245" s="23"/>
-      <c r="W245" s="23"/>
-      <c r="X245" s="23"/>
-      <c r="Y245" s="23"/>
-      <c r="Z245" s="23"/>
-      <c r="AA245" s="23"/>
-      <c r="AB245" s="23"/>
-      <c r="AC245" s="23"/>
-      <c r="AD245" s="23"/>
-      <c r="AE245" s="23"/>
-      <c r="AF245" s="23"/>
-      <c r="AG245" s="23"/>
-      <c r="AH245" s="23"/>
-      <c r="AI245" s="23"/>
-      <c r="AJ245" s="23"/>
-      <c r="AK245" s="23"/>
-      <c r="AL245" s="23"/>
-    </row>
-    <row r="246" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A246" s="4">
-        <v>0</v>
-      </c>
-      <c r="B246" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="C246" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="247" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A247" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="B247" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C247" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="248" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A248" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="B248" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="C248" s="21" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="249" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A249" s="13"/>
-      <c r="B249" s="5"/>
-      <c r="C249" s="21" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="250" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A250" s="13"/>
-      <c r="B250" s="5"/>
-      <c r="C250" s="21" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="251" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A251" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B251" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C251" s="21"/>
-    </row>
-    <row r="252" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A252" s="13">
-        <v>14</v>
-      </c>
-      <c r="B252" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="C252" s="21" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="253" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A253" s="13">
-        <v>15</v>
-      </c>
-      <c r="B253" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="C253" s="21" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="254" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A254" s="5"/>
-      <c r="B254" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C254" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="255" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A255" s="5"/>
-      <c r="B255" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="C255" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="29"/>
-      <c r="B260" s="32" t="s">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="29"/>
+      <c r="B262" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="C262" s="31"/>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="B263" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="C260" s="31"/>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="B261" s="30" t="s">
+      <c r="C263" s="31" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="34" t="s">
         <v>339</v>
       </c>
-      <c r="C261" s="31" t="s">
+      <c r="B264" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="C264" s="26" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="35"/>
+      <c r="B265" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="C265" s="28" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" s="34" t="s">
-        <v>340</v>
-      </c>
-      <c r="B262" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="C262" s="26" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="35"/>
-      <c r="B263" s="27" t="s">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="B266" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="C263" s="28" t="s">
+      <c r="C266" s="31" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="33" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="B264" s="30" t="s">
+      <c r="B267" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="C267" s="31" t="s">
         <v>342</v>
-      </c>
-      <c r="C264" s="31" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="33" t="s">
-        <v>346</v>
-      </c>
-      <c r="B265" s="30" t="s">
-        <v>342</v>
-      </c>
-      <c r="C265" s="31" t="s">
-        <v>343</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C110" r:id="rId1"/>
+    <hyperlink ref="C112" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
